--- a/team_details.xlsx
+++ b/team_details.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data Kuliah 2018-2022\Semester 7\Praktikum Pembelajaran Mesin\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data Kuliah 2018-2022\Semester 7\Praktikum Pembelajaran Mesin\GithubKelompok\TugasPraktikumML_141_169\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A9E7BCB-0FA1-4FF3-911D-C4FA6B6EF490}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12CD424E-2545-4B6A-9075-5F3378BF0F4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{EAE6FB02-0422-4D21-B63C-BF057AFAD2E8}"/>
   </bookViews>
@@ -51,26 +51,26 @@
     <t>Link Artikel</t>
   </si>
   <si>
-    <t>Flower Image Classification Using Deep Convolutional Neural Network</t>
-  </si>
-  <si>
-    <t>https://ieeexplore.ieee.org/abstract/document/9443129</t>
-  </si>
-  <si>
-    <t>https://www.kaggle.com/nunenuh/pytorch-challange-flower-dataset</t>
-  </si>
-  <si>
-    <t>Oxford 102 Flower Dataset</t>
-  </si>
-  <si>
     <t>Image Classification menggunakan deep learning dan tensorflow pada citra</t>
+  </si>
+  <si>
+    <t>https://jurnal.wicida.ac.id/index.php/sebatik/article/download/1060/297/</t>
+  </si>
+  <si>
+    <t>KLASIFIKASI PENYAKIT TANAMAN APEL DARI CITRA DAUN DENGAN CONVOLUTIONAL NEURAL NETWORK</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/vipoooool/new-plant-diseases-dataset</t>
+  </si>
+  <si>
+    <t>New Plant Diseases Dataset</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -82,6 +82,14 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -104,14 +112,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -427,7 +438,7 @@
   <dimension ref="A1:A19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -454,7 +465,7 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
@@ -464,7 +475,7 @@
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
@@ -473,8 +484,8 @@
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>10</v>
+      <c r="A13" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
@@ -484,7 +495,7 @@
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
@@ -493,12 +504,15 @@
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19" s="2" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A19" r:id="rId1" xr:uid="{353CEB6C-A6C1-4878-8B32-CC6EA4A983C7}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>